--- a/Documents/SKILL-MATRIX.xlsx
+++ b/Documents/SKILL-MATRIX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iti\Documents\GitHub\Foodies\Foodies_Sys_Project_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iti\Documents\GitHub\Foodies\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,16 +83,16 @@
     <t>Bootstrap</t>
   </si>
   <si>
-    <t>SQL Server</t>
-  </si>
-  <si>
-    <t>ASP.NET</t>
-  </si>
-  <si>
     <t xml:space="preserve">CM </t>
   </si>
   <si>
     <t>Test Techniques</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>MySQL Server</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,44 +771,44 @@
     </row>
     <row r="7" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9">
         <v>1</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" s="9">
         <v>1</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" s="9">
         <v>1</v>
       </c>
       <c r="P7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="9">
         <v>1</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -840,14 +840,14 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" s="7">
         <v>1</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
         <v>1</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="9" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7">
         <v>3</v>
